--- a/excel/PCoptimum.xlsx
+++ b/excel/PCoptimum.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Document\GitHub\pcoptimum_html\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF81D17-15E1-4E8B-91F6-D399C7CFB708}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7962D9F-A899-4B84-A0BA-62D6A76A412D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23835" yWindow="7170" windowWidth="13695" windowHeight="12885" xr2:uid="{7A0B6E75-F037-4864-A362-1873AE88B937}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Offers</t>
   </si>
@@ -166,6 +166,15 @@
   </si>
   <si>
     <t>Iceberg Lettuce</t>
+  </si>
+  <si>
+    <t>Lactantcia Butter or Margarine</t>
+  </si>
+  <si>
+    <t>Hygrade Weiners</t>
+  </si>
+  <si>
+    <t>no name Canned Chicken or Beef Broth</t>
   </si>
 </sst>
 </file>
@@ -540,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478E9977-F543-4674-99C4-7906B4BDCCDB}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="A1:C45"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,39 +671,39 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3">
         <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -705,7 +714,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -716,104 +725,104 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3">
-        <v>200</v>
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>200</v>
+        <v>800</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="1">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>600</v>
+      <c r="A23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
@@ -824,7 +833,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1">
         <v>3</v>
@@ -835,114 +844,114 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B27" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="3">
-        <v>600</v>
+      <c r="A28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B29" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B30" s="1">
-        <v>9</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1800</v>
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>600</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="1">
-        <v>8</v>
-      </c>
-      <c r="C31" s="4">
-        <v>1600</v>
+      <c r="A31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="3">
+        <v>600</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>2</v>
-      </c>
-      <c r="C33">
-        <v>400</v>
+        <v>9</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1800</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1">
-        <v>2</v>
-      </c>
-      <c r="C34">
-        <v>400</v>
+        <v>8</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1600</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B35" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>400</v>
+        <v>800</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B37" s="1">
         <v>2</v>
@@ -953,51 +962,51 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B38" s="1">
-        <v>6</v>
-      </c>
-      <c r="C38" s="4">
-        <v>1200</v>
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B41" s="1">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>200</v>
+        <v>6</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1200</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B42" s="1">
         <v>2</v>
@@ -1008,7 +1017,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B43" s="1">
         <v>1</v>
@@ -1018,28 +1027,61 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3">
-        <v>600</v>
+      <c r="A44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B48" s="1">
         <v>3</v>
       </c>
-      <c r="C45">
+      <c r="C48">
         <v>600</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C45">
-    <sortCondition ref="A2:A45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C48">
+    <sortCondition ref="A2:A48"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/excel/PCoptimum.xlsx
+++ b/excel/PCoptimum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Document\GitHub\pcoptimum_html\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7962D9F-A899-4B84-A0BA-62D6A76A412D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD0A703-31C0-4249-BCA0-BBB080749589}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23835" yWindow="7170" windowWidth="13695" windowHeight="12885" xr2:uid="{7A0B6E75-F037-4864-A362-1873AE88B937}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Offers</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>no name Canned Chicken or Beef Broth</t>
+  </si>
+  <si>
+    <t>PC Pork Ribs</t>
+  </si>
+  <si>
+    <t>L Extra Camembert</t>
   </si>
 </sst>
 </file>
@@ -228,13 +234,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478E9977-F543-4674-99C4-7906B4BDCCDB}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,30 +698,27 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>600</v>
+      <c r="A13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -725,7 +729,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -736,7 +740,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -747,82 +751,82 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23" s="1">
         <v>3</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
@@ -833,51 +837,51 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B26" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B29" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1">
         <v>3</v>
@@ -887,71 +891,71 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C32" s="3">
         <v>600</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="1">
-        <v>2</v>
-      </c>
-      <c r="C32">
-        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1">
-        <v>9</v>
-      </c>
-      <c r="C33" s="4">
-        <v>1800</v>
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" s="4">
-        <v>1600</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1">
-        <v>4</v>
-      </c>
-      <c r="C35">
-        <v>800</v>
+        <v>8</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1600</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B36" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>400</v>
+        <v>800</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1">
         <v>2</v>
@@ -962,7 +966,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B38" s="1">
         <v>2</v>
@@ -973,84 +977,81 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B41" s="1">
-        <v>6</v>
-      </c>
-      <c r="C41" s="4">
-        <v>1200</v>
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>400</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="1">
-        <v>2</v>
-      </c>
-      <c r="C42">
-        <v>400</v>
+      <c r="A42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="6">
+        <v>2200</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B43" s="1">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>200</v>
+        <v>6</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1200</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
@@ -1060,28 +1061,50 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3">
-        <v>600</v>
+      <c r="A47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>400</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B50" s="1">
         <v>3</v>
       </c>
-      <c r="C48">
+      <c r="C50">
         <v>600</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C48">
-    <sortCondition ref="A2:A48"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C50">
+    <sortCondition ref="A1:A50"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/excel/PCoptimum.xlsx
+++ b/excel/PCoptimum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Document\GitHub\pcoptimum_html\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD0A703-31C0-4249-BCA0-BBB080749589}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F99169F-4FDF-44B9-A852-6521A7271A27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23835" yWindow="7170" windowWidth="13695" windowHeight="12885" xr2:uid="{7A0B6E75-F037-4864-A362-1873AE88B937}"/>
+    <workbookView xWindow="14220" yWindow="840" windowWidth="24990" windowHeight="15615" xr2:uid="{7A0B6E75-F037-4864-A362-1873AE88B937}"/>
   </bookViews>
   <sheets>
     <sheet name="PC Optimum Offers" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Offers</t>
   </si>
@@ -181,6 +181,21 @@
   </si>
   <si>
     <t>L Extra Camembert</t>
+  </si>
+  <si>
+    <t>Pineapple</t>
+  </si>
+  <si>
+    <t>Irish Spring Products</t>
+  </si>
+  <si>
+    <t>Farmer's Market Muffins</t>
+  </si>
+  <si>
+    <t>Palmolive Dish Soap</t>
+  </si>
+  <si>
+    <t>Gadoua Bread, Rolls, Bagels and Tortillas</t>
   </si>
 </sst>
 </file>
@@ -190,7 +205,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +224,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -234,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -242,6 +263,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478E9977-F543-4674-99C4-7906B4BDCCDB}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,18 +625,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>800</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -624,21 +647,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>200</v>
@@ -646,18 +669,18 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -668,57 +691,60 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3">
-        <v>300</v>
+      <c r="A12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1000</v>
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -729,7 +755,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -740,7 +766,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -751,7 +777,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -762,18 +788,18 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -783,83 +809,81 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>400</v>
+      <c r="A21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3">
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="1">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>800</v>
+      <c r="A22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3">
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C23">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3">
-        <v>200</v>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B28" s="1">
         <v>2</v>
@@ -870,48 +894,51 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B31" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="3">
-        <v>600</v>
+      <c r="A32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B33" s="1">
         <v>2</v>
@@ -921,190 +948,239 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="1">
-        <v>9</v>
-      </c>
-      <c r="C34" s="4">
-        <v>1800</v>
+      <c r="A34" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="8">
+        <v>2</v>
+      </c>
+      <c r="C34" s="7">
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>39</v>
+      <c r="A35" t="s">
+        <v>56</v>
       </c>
       <c r="B35" s="1">
-        <v>8</v>
-      </c>
-      <c r="C35" s="4">
-        <v>1600</v>
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>400</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B36" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B37" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B38" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B39" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B40" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B41" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="6">
-        <v>2200</v>
+      <c r="A42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>600</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="1">
-        <v>6</v>
-      </c>
-      <c r="C43" s="4">
-        <v>1200</v>
+      <c r="A43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="3">
+        <v>600</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="1">
-        <v>2</v>
-      </c>
-      <c r="C44">
-        <v>400</v>
+      <c r="A44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3">
+        <v>600</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B45" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B46" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>6</v>
+      <c r="A47" t="s">
+        <v>55</v>
       </c>
       <c r="B47" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B48" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C48">
-        <v>200</v>
+        <v>800</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3">
-        <v>600</v>
+      <c r="A49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="1">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>800</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B50" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>600</v>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="1">
+        <v>6</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="1">
+        <v>8</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="1">
+        <v>9</v>
+      </c>
+      <c r="C54" s="4">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="6">
+        <v>2200</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C50">
-    <sortCondition ref="A1:A50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C55">
+    <sortCondition ref="C55"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/excel/PCoptimum.xlsx
+++ b/excel/PCoptimum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Document\GitHub\pcoptimum_html\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F99169F-4FDF-44B9-A852-6521A7271A27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F260625-12D9-41A1-A140-6B3DE7C16827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14220" yWindow="840" windowWidth="24990" windowHeight="15615" xr2:uid="{7A0B6E75-F037-4864-A362-1873AE88B937}"/>
+    <workbookView xWindow="11130" yWindow="3390" windowWidth="24990" windowHeight="15615" xr2:uid="{7A0B6E75-F037-4864-A362-1873AE88B937}"/>
   </bookViews>
   <sheets>
     <sheet name="PC Optimum Offers" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Offers</t>
   </si>
@@ -196,6 +196,21 @@
   </si>
   <si>
     <t>Gadoua Bread, Rolls, Bagels and Tortillas</t>
+  </si>
+  <si>
+    <t>Cucumbers</t>
+  </si>
+  <si>
+    <t>PC Potato Chips</t>
+  </si>
+  <si>
+    <t>Van Houtte Whole Bean or Ground Coffee</t>
+  </si>
+  <si>
+    <t>Beatrice Chocolate Milk or Buttermilk</t>
+  </si>
+  <si>
+    <t>no name Tomato Sauces or Tomato Pastes</t>
   </si>
 </sst>
 </file>
@@ -255,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -265,6 +280,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,15 +595,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478E9977-F543-4674-99C4-7906B4BDCCDB}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="1" max="1" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -624,44 +640,42 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>200</v>
+      <c r="A4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="6">
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>200</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>200</v>
@@ -669,29 +683,29 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>200</v>
+      <c r="A9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="8">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7">
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -702,104 +716,101 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>49</v>
+      <c r="A12" t="s">
+        <v>56</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13">
         <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>200</v>
+      <c r="A16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3">
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>200</v>
+      <c r="A18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -809,59 +820,63 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3">
-        <v>300</v>
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3">
-        <v>300</v>
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1">
         <v>3</v>
       </c>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
       <c r="C24">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
@@ -872,95 +887,93 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>400</v>
+        <v>800</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <v>400</v>
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>400</v>
+      <c r="A30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>45</v>
+      <c r="A32" t="s">
+        <v>55</v>
       </c>
       <c r="B32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="8">
-        <v>2</v>
-      </c>
-      <c r="C34" s="7">
-        <v>400</v>
+      <c r="A34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>600</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>56</v>
+      <c r="A35" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B35" s="1">
         <v>2</v>
@@ -971,18 +984,18 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B36" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B37" s="1">
         <v>3</v>
@@ -993,7 +1006,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B38" s="1">
         <v>3</v>
@@ -1003,184 +1016,240 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="1">
-        <v>3</v>
-      </c>
-      <c r="C39">
+      <c r="A39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="3">
         <v>600</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B40" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B41" s="1">
-        <v>3</v>
-      </c>
-      <c r="C41">
-        <v>600</v>
+        <v>9</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1800</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B42" s="1">
-        <v>3</v>
-      </c>
-      <c r="C42">
-        <v>600</v>
+        <v>8</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1600</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="3">
-        <v>600</v>
+      <c r="A43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>800</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3">
-        <v>600</v>
+      <c r="A44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B45" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B46" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>55</v>
+      <c r="A47" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B47" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B48" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B49" s="1">
-        <v>4</v>
-      </c>
-      <c r="C49">
-        <v>800</v>
+      <c r="A49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="6">
+        <v>2200</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B50" s="1">
-        <v>4</v>
-      </c>
-      <c r="C50">
-        <v>800</v>
+        <v>1</v>
+      </c>
+      <c r="C50" s="4">
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="6">
-        <v>1000</v>
+      <c r="A51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="1">
+        <v>6</v>
+      </c>
+      <c r="C51" s="4">
+        <v>1200</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B52" s="1">
-        <v>6</v>
-      </c>
-      <c r="C52" s="4">
-        <v>1200</v>
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>400</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B53" s="1">
-        <v>8</v>
-      </c>
-      <c r="C53" s="4">
-        <v>1600</v>
+      <c r="A53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3">
+        <v>300</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B54" s="1">
-        <v>9</v>
-      </c>
-      <c r="C54" s="4">
-        <v>1800</v>
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" s="6">
-        <v>2200</v>
+      <c r="A55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="1">
+        <v>6</v>
+      </c>
+      <c r="C59" s="4">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="1">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C55">
-    <sortCondition ref="C55"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C60">
+    <sortCondition ref="A1:A60"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/excel/PCoptimum.xlsx
+++ b/excel/PCoptimum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Document\GitHub\pcoptimum_html\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F260625-12D9-41A1-A140-6B3DE7C16827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F30F520-0C9D-4C2D-81D8-9D771EAB08A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11130" yWindow="3390" windowWidth="24990" windowHeight="15615" xr2:uid="{7A0B6E75-F037-4864-A362-1873AE88B937}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Offers</t>
   </si>
@@ -211,6 +211,18 @@
   </si>
   <si>
     <t>no name Tomato Sauces or Tomato Pastes</t>
+  </si>
+  <si>
+    <t>Listerine Products</t>
+  </si>
+  <si>
+    <t>Fleecy Fabric Softener</t>
+  </si>
+  <si>
+    <t>Watermelon</t>
+  </si>
+  <si>
+    <t>PC Maple Syrup</t>
   </si>
 </sst>
 </file>
@@ -595,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478E9977-F543-4674-99C4-7906B4BDCCDB}">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,29 +717,29 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>200</v>
+        <v>5</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>56</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
@@ -737,91 +749,91 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
+      <c r="A13" t="s">
+        <v>56</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B16" s="1">
         <v>4</v>
       </c>
-      <c r="C15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="C16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B18" s="1">
         <v>3</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C19" s="6">
         <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="1">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -832,7 +844,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -843,7 +855,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
@@ -854,18 +866,18 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="B24" s="1">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>600</v>
+        <v>7</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1500</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
@@ -876,82 +888,82 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B26" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B27" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>800</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" s="4">
-        <v>200</v>
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>800</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3">
-        <v>200</v>
+      <c r="A30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>600</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="1">
-        <v>3</v>
-      </c>
-      <c r="C32">
-        <v>600</v>
+      <c r="A32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
@@ -961,8 +973,8 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>29</v>
+      <c r="A34" t="s">
+        <v>55</v>
       </c>
       <c r="B34" s="1">
         <v>3</v>
@@ -973,125 +985,125 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B36" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B37" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
         <v>3</v>
       </c>
-      <c r="C38">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="3">
+      <c r="C39">
         <v>600</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B40" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" s="1">
-        <v>9</v>
-      </c>
-      <c r="C41" s="4">
-        <v>1800</v>
+      <c r="A41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="3">
+        <v>600</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B42" s="1">
-        <v>8</v>
-      </c>
-      <c r="C42" s="4">
-        <v>1600</v>
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B43" s="1">
-        <v>4</v>
-      </c>
-      <c r="C43">
-        <v>800</v>
+        <v>9</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1800</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B44" s="1">
-        <v>2</v>
-      </c>
-      <c r="C44">
-        <v>400</v>
+        <v>8</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1600</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B45" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>400</v>
+        <v>800</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B46" s="1">
         <v>2</v>
@@ -1102,18 +1114,18 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B47" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B48" s="1">
         <v>2</v>
@@ -1123,91 +1135,91 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="6">
-        <v>2200</v>
+      <c r="A49" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="1">
+        <v>4</v>
+      </c>
+      <c r="C49" s="4">
+        <v>800</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50">
         <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B51" s="1">
-        <v>6</v>
-      </c>
-      <c r="C51" s="4">
-        <v>1200</v>
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" s="1">
-        <v>2</v>
-      </c>
-      <c r="C52">
-        <v>400</v>
+      <c r="A52" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="6">
+        <v>2200</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3">
-        <v>300</v>
+      <c r="A53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" s="4">
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B54" s="1">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>200</v>
+        <v>6</v>
+      </c>
+      <c r="C54" s="4">
+        <v>1200</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="1">
-        <v>2</v>
-      </c>
-      <c r="C56">
-        <v>400</v>
+      <c r="A56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3">
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B57" s="1">
         <v>1</v>
@@ -1217,39 +1229,80 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3">
-        <v>600</v>
+      <c r="A58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B59" s="1">
-        <v>6</v>
-      </c>
-      <c r="C59" s="4">
-        <v>1200</v>
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>400</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="1">
+        <v>6</v>
+      </c>
+      <c r="C62" s="4">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B64" s="1">
         <v>3</v>
       </c>
-      <c r="C60">
+      <c r="C64">
         <v>600</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C60">
-    <sortCondition ref="A1:A60"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C64">
+    <sortCondition ref="A2:A64"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/excel/PCoptimum.xlsx
+++ b/excel/PCoptimum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Document\GitHub\pcoptimum_html\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F30F520-0C9D-4C2D-81D8-9D771EAB08A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745B1477-24ED-45B7-8392-293BD39DD806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11130" yWindow="3390" windowWidth="24990" windowHeight="15615" xr2:uid="{7A0B6E75-F037-4864-A362-1873AE88B937}"/>
+    <workbookView xWindow="10965" yWindow="4080" windowWidth="24990" windowHeight="15615" xr2:uid="{7A0B6E75-F037-4864-A362-1873AE88B937}"/>
   </bookViews>
   <sheets>
     <sheet name="PC Optimum Offers" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Offers</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>PC Maple Syrup</t>
+  </si>
+  <si>
+    <t>Speedstick Products</t>
+  </si>
+  <si>
+    <t>Taylor Farms Vegetable Saute Kit</t>
   </si>
 </sst>
 </file>
@@ -607,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478E9977-F543-4674-99C4-7906B4BDCCDB}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,57 +1258,79 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B60" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C60">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3">
-        <v>600</v>
+      <c r="A61" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>400</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="B62" s="1">
-        <v>6</v>
-      </c>
-      <c r="C62" s="4">
-        <v>1200</v>
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C63" s="4">
-        <v>500</v>
+      <c r="A63" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3">
+        <v>600</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" s="1">
+        <v>6</v>
+      </c>
+      <c r="C64" s="4">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B66" s="1">
         <v>3</v>
       </c>
-      <c r="C64">
+      <c r="C66">
         <v>600</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C64">
-    <sortCondition ref="A2:A64"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C66">
+    <sortCondition ref="A2:A66"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/excel/PCoptimum.xlsx
+++ b/excel/PCoptimum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Document\GitHub\pcoptimum_html\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745B1477-24ED-45B7-8392-293BD39DD806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECCD78B-83E5-40C5-A0AB-49C2C3709A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10965" yWindow="4080" windowWidth="24990" windowHeight="15615" xr2:uid="{7A0B6E75-F037-4864-A362-1873AE88B937}"/>
+    <workbookView xWindow="11910" yWindow="4230" windowWidth="24990" windowHeight="15615" xr2:uid="{7A0B6E75-F037-4864-A362-1873AE88B937}"/>
   </bookViews>
   <sheets>
     <sheet name="PC Optimum Offers" sheetId="1" r:id="rId1"/>
@@ -168,9 +168,6 @@
     <t>Iceberg Lettuce</t>
   </si>
   <si>
-    <t>Lactantcia Butter or Margarine</t>
-  </si>
-  <si>
     <t>Hygrade Weiners</t>
   </si>
   <si>
@@ -229,6 +226,9 @@
   </si>
   <si>
     <t>Taylor Farms Vegetable Saute Kit</t>
+  </si>
+  <si>
+    <t>Lactantia Butter or Margarine</t>
   </si>
 </sst>
 </file>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478E9977-F543-4674-99C4-7906B4BDCCDB}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +659,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="6">
@@ -679,7 +679,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="8">
         <v>2</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1">
         <v>5</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1">
         <v>4</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="6">
         <v>1000</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="1">
         <v>7</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="1">
         <v>3</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49" s="1">
         <v>4</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52" s="6">
         <v>2200</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" s="1">
         <v>1</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3">
@@ -1258,7 +1258,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" s="1">
         <v>3</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" s="1">
         <v>2</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B64" s="1">
         <v>6</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65" s="4">
         <v>500</v>

--- a/excel/PCoptimum.xlsx
+++ b/excel/PCoptimum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Document\GitHub\pcoptimum_html\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECCD78B-83E5-40C5-A0AB-49C2C3709A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C09B820-861E-4E99-A7B6-A61CB3107D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11910" yWindow="4230" windowWidth="24990" windowHeight="15615" xr2:uid="{7A0B6E75-F037-4864-A362-1873AE88B937}"/>
+    <workbookView xWindow="14565" yWindow="3510" windowWidth="21240" windowHeight="14865" xr2:uid="{7A0B6E75-F037-4864-A362-1873AE88B937}"/>
   </bookViews>
   <sheets>
     <sheet name="PC Optimum Offers" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Offers</t>
   </si>
@@ -229,6 +229,21 @@
   </si>
   <si>
     <t>Lactantia Butter or Margarine</t>
+  </si>
+  <si>
+    <t>T&amp;T Products</t>
+  </si>
+  <si>
+    <t>Breads and Rolls Baked in-store</t>
+  </si>
+  <si>
+    <t>Gattuso Pizza Sauce</t>
+  </si>
+  <si>
+    <t>Natrel Cream</t>
+  </si>
+  <si>
+    <t>Wholly Guacamole, found in the produce aisle</t>
   </si>
 </sst>
 </file>
@@ -613,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478E9977-F543-4674-99C4-7906B4BDCCDB}">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,95 +683,95 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>200</v>
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>800</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8">
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="8">
-        <v>2</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="B10" s="8">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7">
         <v>400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>200</v>
+        <v>5</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>55</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -766,69 +781,70 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
+      <c r="A14" t="s">
+        <v>55</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>600</v>
+      <c r="A15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3">
-        <v>300</v>
+      <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="6">
-        <v>1000</v>
+        <v>46</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3">
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
@@ -838,30 +854,27 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>200</v>
+      <c r="A21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
@@ -872,18 +885,18 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1">
-        <v>7</v>
-      </c>
-      <c r="C24" s="4">
-        <v>1500</v>
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
@@ -894,18 +907,18 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>600</v>
+        <v>7</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1500</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
@@ -916,115 +929,115 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B29" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B31" s="1">
-        <v>1</v>
-      </c>
-      <c r="C31" s="4">
-        <v>200</v>
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="1">
         <v>4</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3">
-        <v>200</v>
+      <c r="C32">
+        <v>800</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>54</v>
+      <c r="A34" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B34" s="1">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>600</v>
+        <v>1</v>
+      </c>
+      <c r="C34" s="4">
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35">
+      <c r="A35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="1">
         <v>3</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>600</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="1">
-        <v>2</v>
-      </c>
-      <c r="C37">
-        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
@@ -1035,7 +1048,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B39" s="1">
         <v>3</v>
@@ -1046,125 +1059,125 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B40" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="3">
-        <v>600</v>
+      <c r="A41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B42" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B43" s="1">
-        <v>9</v>
-      </c>
-      <c r="C43" s="4">
-        <v>1800</v>
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>600</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="1">
-        <v>8</v>
-      </c>
-      <c r="C44" s="4">
-        <v>1600</v>
+      <c r="A44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="3">
+        <v>600</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B45" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B46" s="1">
-        <v>2</v>
-      </c>
-      <c r="C46">
-        <v>400</v>
+        <v>9</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1800</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B47" s="1">
-        <v>2</v>
-      </c>
-      <c r="C47">
-        <v>400</v>
+        <v>8</v>
+      </c>
+      <c r="C47" s="4">
+        <v>1600</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B48" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C48">
-        <v>400</v>
+        <v>800</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B49" s="1">
-        <v>4</v>
-      </c>
-      <c r="C49" s="4">
-        <v>800</v>
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>400</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B50" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B51" s="1">
         <v>2</v>
@@ -1174,163 +1187,218 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52" s="6">
-        <v>2200</v>
+      <c r="A52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="1">
+        <v>4</v>
+      </c>
+      <c r="C52" s="4">
+        <v>800</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B53" s="1">
         <v>1</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53">
         <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B54" s="1">
-        <v>6</v>
-      </c>
-      <c r="C54" s="4">
-        <v>1200</v>
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>400</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" s="1">
-        <v>2</v>
-      </c>
-      <c r="C55">
-        <v>400</v>
+      <c r="A55" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="6">
+        <v>2200</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3">
-        <v>300</v>
+      <c r="A56" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="C56" s="4">
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B57" s="1">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>200</v>
+        <v>6</v>
+      </c>
+      <c r="C57" s="4">
+        <v>1200</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B58" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="1">
-        <v>2</v>
-      </c>
-      <c r="C59">
-        <v>400</v>
+      <c r="A59" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3">
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="B60" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="B61" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B62" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3">
+      <c r="A63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="1">
+        <v>3</v>
+      </c>
+      <c r="C63">
         <v>600</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B64" s="1">
-        <v>6</v>
-      </c>
-      <c r="C64" s="4">
-        <v>1200</v>
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>600</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C65" s="4">
-        <v>500</v>
+        <v>66</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>400</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" s="1">
+        <v>6</v>
+      </c>
+      <c r="C68" s="4">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B71" s="1">
         <v>3</v>
       </c>
-      <c r="C66">
+      <c r="C71">
         <v>600</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C66">
-    <sortCondition ref="A2:A66"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C71">
+    <sortCondition ref="A2:A71"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/excel/PCoptimum.xlsx
+++ b/excel/PCoptimum.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Document\GitHub\pcoptimum_html\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C09B820-861E-4E99-A7B6-A61CB3107D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC61E59-9DE0-4056-ACD2-C1E913E8E443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14565" yWindow="3510" windowWidth="21240" windowHeight="14865" xr2:uid="{7A0B6E75-F037-4864-A362-1873AE88B937}"/>
+    <workbookView xWindow="14130" yWindow="3780" windowWidth="21240" windowHeight="14865" xr2:uid="{7A0B6E75-F037-4864-A362-1873AE88B937}"/>
   </bookViews>
   <sheets>
     <sheet name="PC Optimum Offers" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PC Optimum Offers'!$A$1:$C$76</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Offers</t>
   </si>
@@ -244,6 +247,21 @@
   </si>
   <si>
     <t>Wholly Guacamole, found in the produce aisle</t>
+  </si>
+  <si>
+    <t>Strawberries</t>
+  </si>
+  <si>
+    <t>no name Hot Dog or Hamburger Buns</t>
+  </si>
+  <si>
+    <t>Campbell's Canned Cooking Soups</t>
+  </si>
+  <si>
+    <t>Fresh Porc</t>
+  </si>
+  <si>
+    <t>Corn</t>
   </si>
 </sst>
 </file>
@@ -628,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478E9977-F543-4674-99C4-7906B4BDCCDB}">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,29 +712,29 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>800</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
-        <v>200</v>
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>800</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -727,124 +745,126 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>400</v>
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="8">
-        <v>2</v>
-      </c>
-      <c r="C10" s="7">
-        <v>400</v>
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1">
-        <v>5</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1000</v>
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>200</v>
+      <c r="A12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>400</v>
+        <v>5</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>55</v>
+      <c r="A14" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3">
+      <c r="A15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15">
         <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="1">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="1">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3">
-        <v>300</v>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
@@ -854,71 +874,69 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="6">
-        <v>1000</v>
+      <c r="A21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="1">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>600</v>
+      <c r="A22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3">
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>200</v>
+      <c r="A24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B26" s="1">
-        <v>7</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1500</v>
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
@@ -929,7 +947,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
@@ -940,18 +958,18 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>600</v>
+        <v>7</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1500</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
@@ -962,60 +980,62 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B32" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B33" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="4">
-        <v>200</v>
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="1">
         <v>4</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3">
-        <v>200</v>
+      <c r="C35">
+        <v>800</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
@@ -1025,8 +1045,8 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>54</v>
+      <c r="A37" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B37" s="1">
         <v>3</v>
@@ -1037,62 +1057,60 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="1">
-        <v>3</v>
-      </c>
-      <c r="C39">
-        <v>600</v>
+      <c r="A39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>21</v>
+      <c r="A41" t="s">
+        <v>54</v>
       </c>
       <c r="B41" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B42" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B43" s="1">
         <v>3</v>
@@ -1102,60 +1120,60 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="3">
-        <v>600</v>
+      <c r="A44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B46" s="1">
-        <v>9</v>
-      </c>
-      <c r="C46" s="4">
-        <v>1800</v>
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>600</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B47" s="1">
-        <v>8</v>
-      </c>
-      <c r="C47" s="4">
-        <v>1600</v>
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>600</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="1">
-        <v>4</v>
-      </c>
-      <c r="C48">
-        <v>800</v>
+      <c r="A48" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="3">
+        <v>600</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B49" s="1">
         <v>2</v>
@@ -1166,51 +1184,51 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B50" s="1">
-        <v>2</v>
-      </c>
-      <c r="C50">
-        <v>400</v>
+        <v>9</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1800</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B51" s="1">
-        <v>2</v>
-      </c>
-      <c r="C51">
-        <v>400</v>
+        <v>8</v>
+      </c>
+      <c r="C51" s="4">
+        <v>1600</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="B52" s="1">
         <v>4</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52">
         <v>800</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B54" s="1">
         <v>2</v>
@@ -1220,38 +1238,41 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="6">
-        <v>2200</v>
+      <c r="A55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>400</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B56" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C56" s="4">
-        <v>200</v>
+        <v>800</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B57" s="1">
-        <v>6</v>
-      </c>
-      <c r="C57" s="4">
-        <v>1200</v>
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B58" s="1">
         <v>2</v>
@@ -1262,38 +1283,37 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3">
-        <v>300</v>
+        <v>49</v>
+      </c>
+      <c r="C59" s="6">
+        <v>2200</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B60" s="1">
         <v>1</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B61" s="1">
-        <v>1</v>
-      </c>
-      <c r="C61">
-        <v>200</v>
+        <v>6</v>
+      </c>
+      <c r="C61" s="4">
+        <v>1200</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B62" s="1">
         <v>2</v>
@@ -1303,100 +1323,159 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" s="1">
-        <v>3</v>
-      </c>
-      <c r="C63">
-        <v>600</v>
+      <c r="A63" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3">
+        <v>300</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="B64" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C64">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="B65" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B66" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3">
+      <c r="A67" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1">
+        <v>3</v>
+      </c>
+      <c r="C67">
         <v>600</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B68" s="1">
-        <v>6</v>
-      </c>
-      <c r="C68" s="4">
-        <v>1200</v>
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C69" s="4">
-        <v>500</v>
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>600</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B70" s="1">
         <v>2</v>
       </c>
       <c r="C70">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73" s="1">
+        <v>6</v>
+      </c>
+      <c r="C73" s="4">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" s="1">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B76" s="1">
         <v>3</v>
       </c>
-      <c r="C71">
+      <c r="C76">
         <v>600</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C76" xr:uid="{B528CE58-70A1-4EBE-B207-FAD0A984CD9A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C76">
+      <sortCondition ref="A1:A76"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C71">
     <sortCondition ref="A2:A71"/>
   </sortState>

--- a/excel/PCoptimum.xlsx
+++ b/excel/PCoptimum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Document\GitHub\pcoptimum_html\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC61E59-9DE0-4056-ACD2-C1E913E8E443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC756ADD-FE52-4FE7-8449-B00524E04228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14130" yWindow="3780" windowWidth="21240" windowHeight="14865" xr2:uid="{7A0B6E75-F037-4864-A362-1873AE88B937}"/>
+    <workbookView xWindow="11415" yWindow="4965" windowWidth="21240" windowHeight="14865" xr2:uid="{7A0B6E75-F037-4864-A362-1873AE88B937}"/>
   </bookViews>
   <sheets>
     <sheet name="PC Optimum Offers" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Offers</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>Corn</t>
+  </si>
+  <si>
+    <t>Celery</t>
   </si>
 </sst>
 </file>
@@ -646,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478E9977-F543-4674-99C4-7906B4BDCCDB}">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,96 +725,94 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>800</v>
+      <c r="A7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>200</v>
+        <v>800</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11">
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12">
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="8">
-        <v>2</v>
-      </c>
-      <c r="C12" s="7">
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7">
         <v>400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="1">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>200</v>
+        <v>5</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -822,18 +823,18 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>55</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
@@ -843,100 +844,100 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <v>4</v>
       </c>
-      <c r="C21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="C22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B24" s="1">
         <v>3</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C25" s="6">
         <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="1">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <v>600</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B26" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
@@ -947,7 +948,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
@@ -958,29 +959,29 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>7</v>
-      </c>
-      <c r="C29" s="4">
-        <v>1500</v>
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>200</v>
+        <v>7</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1500</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
@@ -991,170 +992,170 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B32" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B33" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B34" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B35" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B36" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>200</v>
+        <v>800</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="B37" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
-      <c r="C38" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B42" s="1">
         <v>3</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>600</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B43" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B44" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B46" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B47" s="1">
         <v>3</v>
@@ -1164,71 +1165,71 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="1">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C49" s="3">
         <v>600</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49" s="1">
-        <v>2</v>
-      </c>
-      <c r="C49">
-        <v>400</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B50" s="1">
-        <v>9</v>
-      </c>
-      <c r="C50" s="4">
-        <v>1800</v>
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>400</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B51" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" s="4">
-        <v>1600</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B52" s="1">
-        <v>4</v>
-      </c>
-      <c r="C52">
-        <v>800</v>
+        <v>8</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1600</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B53" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C53">
-        <v>400</v>
+        <v>800</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B54" s="1">
         <v>2</v>
@@ -1239,7 +1240,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B55" s="1">
         <v>2</v>
@@ -1250,101 +1251,101 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="B56" s="1">
-        <v>4</v>
-      </c>
-      <c r="C56" s="4">
-        <v>800</v>
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>400</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B57" s="1">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>200</v>
+        <v>4</v>
+      </c>
+      <c r="C57" s="4">
+        <v>800</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="1">
-        <v>2</v>
-      </c>
-      <c r="C58">
+      <c r="B59" s="1">
+        <v>2</v>
+      </c>
+      <c r="C59">
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C60" s="6">
         <v>2200</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" s="1">
-        <v>1</v>
-      </c>
-      <c r="C60" s="4">
-        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B61" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C61" s="4">
-        <v>1200</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="1">
+        <v>6</v>
+      </c>
+      <c r="C62" s="4">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="1">
-        <v>2</v>
-      </c>
-      <c r="C62">
+      <c r="B63" s="1">
+        <v>2</v>
+      </c>
+      <c r="C63">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3">
         <v>300</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64" s="1">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
@@ -1355,124 +1356,135 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B66" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B67" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B68" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B69" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B70" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C70">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B71" s="1">
-        <v>1</v>
-      </c>
-      <c r="C71">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B74" s="1">
         <v>6</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C74" s="4">
         <v>1200</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="6">
+      <c r="B75" s="3"/>
+      <c r="C75" s="6">
         <v>500</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B75" s="1">
-        <v>2</v>
-      </c>
-      <c r="C75">
-        <v>200</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" s="1">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B77" s="1">
         <v>3</v>
       </c>
-      <c r="C76">
+      <c r="C77">
         <v>600</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C76" xr:uid="{B528CE58-70A1-4EBE-B207-FAD0A984CD9A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C76">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C77">
       <sortCondition ref="A1:A76"/>
     </sortState>
   </autoFilter>

--- a/excel/PCoptimum.xlsx
+++ b/excel/PCoptimum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Document\GitHub\pcoptimum_html\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC756ADD-FE52-4FE7-8449-B00524E04228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C0C033-4445-440A-B2BF-2AFE0CD68BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11415" yWindow="4965" windowWidth="21240" windowHeight="14865" xr2:uid="{7A0B6E75-F037-4864-A362-1873AE88B937}"/>
+    <workbookView xWindow="15510" yWindow="5085" windowWidth="21240" windowHeight="14865" xr2:uid="{7A0B6E75-F037-4864-A362-1873AE88B937}"/>
   </bookViews>
   <sheets>
     <sheet name="PC Optimum Offers" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Offers</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>Celery</t>
+  </si>
+  <si>
+    <t>IOGO Yogurt</t>
   </si>
 </sst>
 </file>
@@ -649,11 +652,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478E9977-F543-4674-99C4-7906B4BDCCDB}">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -907,7 +908,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
@@ -917,38 +918,38 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C26" s="6">
         <v>1000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="1">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B27" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
@@ -959,7 +960,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
@@ -970,29 +971,29 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1">
-        <v>7</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1500</v>
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B31" s="1">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>200</v>
+        <v>7</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1500</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
@@ -1003,170 +1004,170 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B33" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B34" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B36" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>200</v>
+        <v>800</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="B38" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
-      <c r="C39" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="1">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B43" s="1">
         <v>3</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>600</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B44" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B45" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B47" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B48" s="1">
         <v>3</v>
@@ -1176,71 +1177,71 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="1">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C50" s="3">
         <v>600</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B50" s="1">
-        <v>2</v>
-      </c>
-      <c r="C50">
-        <v>400</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B51" s="1">
-        <v>9</v>
-      </c>
-      <c r="C51" s="4">
-        <v>1800</v>
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B52" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" s="4">
-        <v>1600</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B53" s="1">
-        <v>4</v>
-      </c>
-      <c r="C53">
-        <v>800</v>
+        <v>8</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1600</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B54" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>400</v>
+        <v>800</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B55" s="1">
         <v>2</v>
@@ -1251,7 +1252,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B56" s="1">
         <v>2</v>
@@ -1262,101 +1263,101 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="B57" s="1">
-        <v>4</v>
-      </c>
-      <c r="C57" s="4">
-        <v>800</v>
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>400</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B58" s="1">
-        <v>1</v>
-      </c>
-      <c r="C58">
-        <v>200</v>
+        <v>4</v>
+      </c>
+      <c r="C58" s="4">
+        <v>800</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="1">
-        <v>2</v>
-      </c>
-      <c r="C59">
+      <c r="B60" s="1">
+        <v>2</v>
+      </c>
+      <c r="C60">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C61" s="6">
         <v>2200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B61" s="1">
-        <v>1</v>
-      </c>
-      <c r="C61" s="4">
-        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B62" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C62" s="4">
-        <v>1200</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="1">
+        <v>6</v>
+      </c>
+      <c r="C63" s="4">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B63" s="1">
-        <v>2</v>
-      </c>
-      <c r="C63">
+      <c r="B64" s="1">
+        <v>2</v>
+      </c>
+      <c r="C64">
         <v>400</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3">
         <v>300</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B65" s="1">
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B66" s="1">
         <v>1</v>
@@ -1367,124 +1368,135 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B67" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B68" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B69" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C69">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B70" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C70">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B71" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C71">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72" s="1">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B72" s="1">
-        <v>1</v>
-      </c>
-      <c r="C72">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3">
+      <c r="B74" s="3"/>
+      <c r="C74" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B75" s="1">
         <v>6</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C75" s="4">
         <v>1200</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="6">
+      <c r="B76" s="3"/>
+      <c r="C76" s="6">
         <v>500</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B76" s="1">
-        <v>2</v>
-      </c>
-      <c r="C76">
-        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B78" s="1">
         <v>3</v>
       </c>
-      <c r="C77">
+      <c r="C78">
         <v>600</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C76" xr:uid="{B528CE58-70A1-4EBE-B207-FAD0A984CD9A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C77">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C78">
       <sortCondition ref="A1:A76"/>
     </sortState>
   </autoFilter>
